--- a/Assets/Config.xlsx
+++ b/Assets/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19775" windowHeight="9840"/>
+    <workbookView windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,6 +124,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -170,6 +171,35 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -185,8 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,51 +247,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,13 +263,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,55 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,78 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,24 +444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,17 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -611,6 +600,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -648,6 +648,39 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,15 +690,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,15 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -709,21 +724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -757,149 +757,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,31 +954,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1347,24 +1344,24 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="8.77777777777778" customWidth="1"/>
-    <col min="6" max="6" width="8.11111111111111" customWidth="1"/>
-    <col min="7" max="7" width="12.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="6.44444444444444" customWidth="1"/>
+    <col min="4" max="4" width="8.775" customWidth="1"/>
+    <col min="6" max="6" width="8.10833333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.8916666666667" customWidth="1"/>
+    <col min="8" max="8" width="6.44166666666667" customWidth="1"/>
     <col min="12" max="12" width="12.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="16.1111111111111" customWidth="1"/>
-    <col min="17" max="17" width="8.77777777777778" customWidth="1"/>
-    <col min="18" max="18" width="10.8888888888889" customWidth="1"/>
-    <col min="19" max="19" width="12.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="16.1083333333333" customWidth="1"/>
+    <col min="17" max="17" width="8.775" customWidth="1"/>
+    <col min="18" max="18" width="10.8916666666667" customWidth="1"/>
+    <col min="19" max="19" width="12.8916666666667" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:20">
+    <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1376,23 +1373,23 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="28"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
     </row>
-    <row r="2" ht="15.6" spans="1:20">
+    <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1425,7 @@
       <c r="O2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -1440,11 +1437,11 @@
       <c r="S2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:20">
+    <row r="3" ht="16.5" spans="1:20">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1470,7 @@
       <c r="I3" s="11">
         <v>500</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <v>2000</v>
       </c>
       <c r="K3" s="13">
@@ -1505,11 +1502,11 @@
         <f t="shared" ref="S3:S16" si="2">100-Q3-P3</f>
         <v>0</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:20">
+    <row r="4" ht="16.5" spans="1:20">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1535,7 @@
       <c r="I4" s="11">
         <v>500</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <v>250</v>
       </c>
       <c r="K4" s="13">
@@ -1570,11 +1567,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:20">
+    <row r="5" ht="16.5" spans="1:20">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1601,7 @@
       <c r="I5" s="11">
         <v>500</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>250</v>
       </c>
       <c r="K5" s="13">
@@ -1636,11 +1633,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="T5" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:20">
+    <row r="6" ht="16.5" spans="1:20">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1670,7 +1667,7 @@
       <c r="I6" s="11">
         <v>500</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>250</v>
       </c>
       <c r="K6" s="13">
@@ -1702,11 +1699,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:20">
+    <row r="7" ht="16.5" spans="1:20">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1736,7 +1733,7 @@
       <c r="I7" s="11">
         <v>500</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <f>J6/2</f>
         <v>125</v>
       </c>
@@ -1769,11 +1766,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="30" t="s">
+      <c r="T7" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:20">
+    <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1800,7 @@
       <c r="I8" s="11">
         <v>500</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>50</v>
       </c>
       <c r="K8" s="13">
@@ -1835,11 +1832,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:20">
+    <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1870,7 +1867,7 @@
       <c r="I9" s="11">
         <v>500</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f>J8/2</f>
         <v>25</v>
       </c>
@@ -1903,11 +1900,11 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:20">
+    <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1937,7 +1934,7 @@
       <c r="I10" s="11">
         <v>500</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>10</v>
       </c>
       <c r="K10" s="13">
@@ -1969,16 +1966,16 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="T10" s="30" t="s">
+      <c r="T10" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:20">
+    <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="14">
-        <f t="shared" ref="B11:B15" si="4">B10+5</f>
+        <f>B10+5</f>
         <v>75</v>
       </c>
       <c r="C11" s="12">
@@ -2002,7 +1999,7 @@
       <c r="I11" s="11">
         <v>500</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <v>3</v>
       </c>
       <c r="K11" s="13">
@@ -2033,17 +2030,17 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:20">
+    <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f>B11+3</f>
+        <v>78</v>
       </c>
       <c r="C12" s="12">
         <v>15</v>
@@ -2067,7 +2064,7 @@
       <c r="I12" s="11">
         <v>500</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="23">
         <v>2</v>
       </c>
       <c r="K12" s="13">
@@ -2098,17 +2095,17 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="T12" s="30" t="s">
+      <c r="T12" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:20">
+    <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" si="4"/>
-        <v>85</v>
+        <f>B12+3</f>
+        <v>81</v>
       </c>
       <c r="C13" s="12">
         <v>20</v>
@@ -2132,7 +2129,7 @@
       <c r="I13" s="11">
         <v>500</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <v>1</v>
       </c>
       <c r="K13" s="13">
@@ -2163,17 +2160,17 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:20">
+    <row r="14" ht="16.5" spans="1:20">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="14">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f>B13+3</f>
+        <v>84</v>
       </c>
       <c r="C14" s="15">
         <v>20</v>
@@ -2197,7 +2194,7 @@
       <c r="I14" s="11">
         <v>500</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="23">
         <v>1</v>
       </c>
       <c r="K14" s="13">
@@ -2228,17 +2225,17 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T14" s="30" t="s">
+      <c r="T14" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:20">
+    <row r="15" ht="16.5" spans="1:20">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="14">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f>B14+3</f>
+        <v>87</v>
       </c>
       <c r="C15" s="15">
         <v>25</v>
@@ -2262,7 +2259,7 @@
       <c r="I15" s="11">
         <v>500</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="23">
         <v>1</v>
       </c>
       <c r="K15" s="13">
@@ -2293,71 +2290,72 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T15" s="30" t="s">
+      <c r="T15" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="16.35" spans="1:20">
+    <row r="16" ht="17.25" spans="1:20">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
-        <v>96</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="14">
+        <f>B15+3</f>
+        <v>90</v>
+      </c>
+      <c r="C16" s="17">
         <v>25</v>
       </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H16" s="19">
-        <v>200</v>
-      </c>
-      <c r="I16" s="25">
-        <v>500</v>
-      </c>
-      <c r="J16" s="26">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19">
+      <c r="H16" s="18">
+        <v>200</v>
+      </c>
+      <c r="I16" s="24">
+        <v>500</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
         <v>1</v>
       </c>
-      <c r="M16" s="19">
-        <v>200</v>
-      </c>
-      <c r="N16" s="25">
-        <v>500</v>
-      </c>
-      <c r="O16" s="25" t="s">
+      <c r="M16" s="18">
+        <v>200</v>
+      </c>
+      <c r="N16" s="24">
+        <v>500</v>
+      </c>
+      <c r="O16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="19">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19">
-        <v>0</v>
-      </c>
-      <c r="S16" s="19">
+      <c r="P16" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0</v>
+      </c>
+      <c r="S16" s="18">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T16" s="31" t="s">
+      <c r="T16" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2387,7 +2385,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2404,7 +2402,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
